--- a/DataTables/Datas/test/full_type.xlsx
+++ b/DataTables/Datas/test/full_type.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\luban_examples\DataTables\Datas\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C362F-1D69-46F3-933D-43C64756C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView xWindow="41445" yWindow="3105" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -30,8 +36,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -192,8 +198,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1;2;</t>
@@ -202,8 +208,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -214,8 +220,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1,2,</t>
@@ -224,8 +230,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
@@ -408,171 +414,57 @@
   <si>
     <t>测试别名,1,2;DemoE1,1,2,14</t>
   </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,188 +477,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -774,316 +486,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,42 +770,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1238095238095" customWidth="1"/>
-    <col min="2" max="2" width="15.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="17.3714285714286" customWidth="1"/>
-    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.3714285714286" customWidth="1"/>
-    <col min="7" max="7" width="14.3714285714286" customWidth="1"/>
-    <col min="8" max="8" width="13.247619047619" customWidth="1"/>
-    <col min="9" max="9" width="19.3714285714286" customWidth="1"/>
-    <col min="12" max="12" width="16.6285714285714" customWidth="1"/>
-    <col min="13" max="13" width="43.3714285714286" customWidth="1"/>
-    <col min="17" max="17" width="11.3714285714286" customWidth="1"/>
-    <col min="23" max="23" width="14.1238095238095" customWidth="1"/>
-    <col min="24" max="24" width="20.3714285714286" customWidth="1"/>
-    <col min="25" max="25" width="14.1238095238095" customWidth="1"/>
-    <col min="30" max="30" width="14.4285714285714" customWidth="1"/>
-    <col min="31" max="31" width="11.5047619047619" customWidth="1"/>
-    <col min="32" max="32" width="28.752380952381" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="43.375" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="20.375" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="30" max="30" width="14.375" customWidth="1"/>
+    <col min="31" max="31" width="11.5" customWidth="1"/>
+    <col min="32" max="32" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1424,10 +853,10 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" t="s">
@@ -1451,18 +880,18 @@
       <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
@@ -1502,8 +931,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1513,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +976,7 @@
       <c r="L4">
         <v>111111111</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>44</v>
       </c>
       <c r="O4">
@@ -1568,13 +997,13 @@
       <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" t="s">
         <v>52</v>
       </c>
       <c r="AC4" t="s">
@@ -1590,7 +1019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1624,13 +1053,13 @@
       <c r="W5" t="s">
         <v>49</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" t="s">
         <v>59</v>
       </c>
       <c r="AC5" t="s">
@@ -1646,7 +1075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -1671,7 +1100,7 @@
       <c r="S6" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AA6" t="s">
@@ -1693,7 +1122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1730,7 +1159,7 @@
       <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="AA7" t="s">
@@ -1752,7 +1181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1786,7 +1215,7 @@
       <c r="L8">
         <v>111111111</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>68</v>
       </c>
       <c r="O8">
@@ -1810,7 +1239,7 @@
       <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AA8" t="s">
@@ -1832,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1890,7 +1319,7 @@
       <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AA9" t="s">
@@ -1912,7 +1341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +1399,7 @@
       <c r="W10" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AA10" t="s">
@@ -1992,7 +1421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -2050,7 +1479,7 @@
       <c r="W11" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AA11" t="s">
@@ -2072,7 +1501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -2112,7 +1541,7 @@
       <c r="O12">
         <v>1988</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12" t="s">
@@ -2130,7 +1559,7 @@
       <c r="W12" t="s">
         <v>49</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AA12" t="s">
@@ -2152,7 +1581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -2210,7 +1639,7 @@
       <c r="W13" t="s">
         <v>86</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AA13" t="s">
@@ -2232,7 +1661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" spans="2:32">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>92</v>
       </c>
@@ -2269,8 +1698,8 @@
       <c r="M14" t="s">
         <v>72</v>
       </c>
-      <c r="O14">
-        <v>1990</v>
+      <c r="O14" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -2290,7 +1719,7 @@
       <c r="W14" t="s">
         <v>96</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA14" t="s">
@@ -2312,7 +1741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="2:32">
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>102</v>
       </c>
@@ -2349,8 +1778,8 @@
       <c r="M15" t="s">
         <v>72</v>
       </c>
-      <c r="O15">
-        <v>1991</v>
+      <c r="O15" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="P15">
         <v>4</v>
@@ -2370,7 +1799,7 @@
       <c r="W15" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="2" t="s">
         <v>107</v>
       </c>
       <c r="AA15" t="s">
@@ -2393,8 +1822,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>